--- a/T5.1/MSLR/[STATS] MSLR.xlsx
+++ b/T5.1/MSLR/[STATS] MSLR.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bellerofonte/Dropbox/anita/T5.1/MSLR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E2392-A4CD-9642-939E-13D40F668707}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95D95DC-A307-6240-B6D4-558B234FDDFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="540" windowWidth="15300" windowHeight="15980" activeTab="1" xr2:uid="{E1D2EB5F-9050-D242-B172-268D1622FD87}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{E1D2EB5F-9050-D242-B172-268D1622FD87}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptive Stats Research" sheetId="1" r:id="rId1"/>
     <sheet name="Descriptive Stats Grey" sheetId="2" r:id="rId2"/>
-    <sheet name="CodesDef" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -211,89 +210,71 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t xml:space="preserve">Microsoft Office User:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>CS = Case-Study</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="18"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">CS = Case-Study
-</t>
+          <t>ER = Experience-Report</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ER = Experience-Report
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>EMX = Empirical or Experimental Study</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9075924A-E869-D746-9C55-FC96859629E1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>EMX = Empirical or Experimental Study</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>PROP - Proposal.</t>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -302,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="98">
   <si>
     <t>Year</t>
   </si>
@@ -538,78 +519,6 @@
     <t>top-5-cybercrimes</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>methods for the risk assessment new data sources</t>
-  </si>
-  <si>
-    <t>METH</t>
-  </si>
-  <si>
-    <t>SRLP</t>
-  </si>
-  <si>
-    <t>Source Risk-Level Parameter. Risk level is referred to a different aspects strictly connected: on one hand, the risk level is due to the involvement of source in illegal trafficking activities; on the other hand, the possibility that criminal groups that own or manage sources monitored by LEAs could recognise anomalous activities due to the crawling process and block them, compromising the investigations. </t>
-  </si>
-  <si>
-    <t>DEPTH</t>
-  </si>
-  <si>
-    <t>Taking into account that risk level of a source can increase with its depth in the Web, such methods will then consider the position of the source (in Surface Web, Deep Web or Dark Nets)</t>
-  </si>
-  <si>
-    <t>ACP</t>
-  </si>
-  <si>
-    <t>Anonymous Crawling Policies. metadata that can be extracted in order to define which policies should be enabled to perform the crawling and with which degree of anonymity.</t>
-  </si>
-  <si>
-    <t>WSAP</t>
-  </si>
-  <si>
-    <t>WebSite Appearance Prameter. Finally, websites appearance, their update frequency and refresh in data will be taken into account during the assessment stage.</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>PROP</t>
-  </si>
-  <si>
-    <t>SQUAL</t>
-  </si>
-  <si>
-    <t>Software Quality reflects the level of assessment for a certain piece of software against basic Criteria for software quality, e.g., software quality standards</t>
-  </si>
-  <si>
-    <t>RSRCH</t>
-  </si>
-  <si>
-    <t>CTYPE</t>
-  </si>
-  <si>
-    <t>MSLR</t>
-  </si>
-  <si>
-    <t>type of criminal activity perpetrated by new online data source - different types require different indicators</t>
-  </si>
-  <si>
-    <t>CMEASURE</t>
-  </si>
-  <si>
-    <t>countermeasure. Action to be taken as soon as the attack manifestation emerges and as soon as something suggests an attack is in progress or has taken place.</t>
-  </si>
-  <si>
-    <t>CFOOTPRINT</t>
-  </si>
-  <si>
-    <t>Cyberfootprint. Minimising exposure of information to threat-inducing scenarios or sources.</t>
-  </si>
-  <si>
     <t>127f0a41b2c554bff9854bdc4a1b04096833</t>
   </si>
   <si>
@@ -638,13 +547,43 @@
   </si>
   <si>
     <t>Studer_SocialEngineering</t>
+  </si>
+  <si>
+    <t>Public Institution</t>
+  </si>
+  <si>
+    <t>Scientific Group</t>
+  </si>
+  <si>
+    <t>Governmental Organization</t>
+  </si>
+  <si>
+    <t>Private Corporation</t>
+  </si>
+  <si>
+    <t>Case-Study</t>
+  </si>
+  <si>
+    <t>Experience-Report</t>
+  </si>
+  <si>
+    <t>Empirical or Experimental Study</t>
+  </si>
+  <si>
+    <t>Formal Methods</t>
+  </si>
+  <si>
+    <t>Experimental Study</t>
+  </si>
+  <si>
+    <t>Empirical Study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -674,10 +613,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF454545"/>
-      <name val="Helvetica Neue"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -703,8 +650,8 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,6 +668,4524 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descriptive Stats Research'!$A$36:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive Stats Research'!$B$36:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D269-2643-8079-2B6B657348A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="93761024"/>
+        <c:axId val="93762704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93761024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93762704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93762704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93761024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FB84-0543-95AF-814B25636F30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FB84-0543-95AF-814B25636F30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FB84-0543-95AF-814B25636F30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FB84-0543-95AF-814B25636F30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive Stats Research'!$D$43:$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Case-Study</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experimental Study</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empirical Study</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Formal Methods</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive Stats Research'!$E$43:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C054-AB44-93A6-EECA5078E886}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Descriptive Stats Grey'!$A$44:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive Stats Grey'!$B$44:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AF1-494E-97D3-AF24CCA4E6AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2107115215"/>
+        <c:axId val="2107116895"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2107115215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107116895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2107116895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107115215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive Stats Grey'!$F$51:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Public Institution</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scientific Group</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Governmental Organization</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Private Corporation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive Stats Grey'!$G$51:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2E6-6040-BAAB-2FC2F8307A28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2111420207"/>
+        <c:axId val="2111421887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2111420207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111421887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2111421887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111420207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29287532808398953"/>
+          <c:y val="9.7222222222222224E-2"/>
+          <c:w val="0.47536045494313212"/>
+          <c:h val="0.79226742490522017"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6D93-3B42-AE18-6255D5E6353F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6D93-3B42-AE18-6255D5E6353F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6D93-3B42-AE18-6255D5E6353F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="88500"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6D93-3B42-AE18-6255D5E6353F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="55000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6D93-3B42-AE18-6255D5E6353F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6D93-3B42-AE18-6255D5E6353F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Descriptive Stats Grey'!$C$51:$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Case-Study</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experience-Report</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empirical or Experimental Study</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Descriptive Stats Grey'!$D$51:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D93-3B42-AE18-6255D5E6353F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B4E7EC-4901-A24D-A045-008194923AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6726C290-CEBE-9F4E-B147-55A509EABA3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D67FCF-6C93-4B46-AEDC-6754371129AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB22135A-31EE-C448-81AB-9779244F5302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC8555F-F749-5246-BFBE-F5382F8974B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1020,10 +5485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBD3126-CC97-2145-9AB6-45EEC08DC4ED}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1476,7 +5941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1488,26 +5953,171 @@
       </c>
       <c r="D33" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2006</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(B1:B33, 2006)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2007</v>
+      </c>
+      <c r="B37">
+        <f>COUNTIF(B1:B33, 2007)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2008</v>
+      </c>
+      <c r="B38">
+        <f>COUNTIF(B1:B33, 2008)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2009</v>
+      </c>
+      <c r="B39">
+        <f>COUNTIF(B1:B33, 2009)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2010</v>
+      </c>
+      <c r="B40">
+        <f>COUNTIF(B1:B33, 2010)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2011</v>
+      </c>
+      <c r="B41">
+        <f>COUNTIF(B1:B33, 2011)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2012</v>
+      </c>
+      <c r="B42">
+        <f>COUNTIF(B1:B33, 2012)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2013</v>
+      </c>
+      <c r="B43">
+        <f>COUNTIF(B1:B33, 2013)</f>
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43">
+        <f>COUNTIF(D1:D33, "CS")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2014</v>
+      </c>
+      <c r="B44">
+        <f>COUNTIF(B1:B33, 2014)</f>
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44">
+        <f>COUNTIF(D1:D33, "EMP")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2015</v>
+      </c>
+      <c r="B45">
+        <f>COUNTIF(B1:B33, 2015)</f>
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45">
+        <f>COUNTIF(D1:D33, "EXP")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2016</v>
+      </c>
+      <c r="B46">
+        <f>COUNTIF(B1:B33, 2016)</f>
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46">
+        <f>COUNTIF(D2:D34, "FRML")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2017</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2018</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7D160B-AE1E-0943-ACCE-C333A44ED68C}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1932,13 +6542,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>2013</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
@@ -1946,13 +6556,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B32">
         <v>2015</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
         <v>63</v>
@@ -1966,7 +6576,7 @@
         <v>2003</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
@@ -1980,7 +6590,7 @@
         <v>2011</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
         <v>63</v>
@@ -1994,7 +6604,7 @@
         <v>2015</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>63</v>
@@ -2002,13 +6612,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B36">
         <v>2010</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
         <v>63</v>
@@ -2016,13 +6626,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B37">
         <v>2010</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
         <v>63</v>
@@ -2030,7 +6640,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>2014</v>
@@ -2044,13 +6654,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>2006</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -2058,13 +6668,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B40">
         <v>2016</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>63</v>
@@ -2072,13 +6682,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>2017</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
         <v>63</v>
@@ -2086,7 +6696,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <v>2007</v>
@@ -2098,138 +6708,173 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2006</v>
+      </c>
+      <c r="B44">
+        <f>COUNTIF(B2:B42, 2006)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2007</v>
+      </c>
+      <c r="B45">
+        <f>COUNTIF(B1:B42, 2007)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2008</v>
+      </c>
+      <c r="B46">
+        <f>COUNTIF(B1:B42, 2008)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2009</v>
+      </c>
+      <c r="B47">
+        <f>COUNTIF(B1:B42, 2009)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2010</v>
+      </c>
+      <c r="B48">
+        <f>COUNTIF(B1:B42, 2010)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2011</v>
+      </c>
+      <c r="B49">
+        <f>COUNTIF(B1:B42, 2011)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2012</v>
+      </c>
+      <c r="B50">
+        <f>COUNTIF(B1:B42, 2012)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2013</v>
+      </c>
+      <c r="B51">
+        <f>COUNTIF(B2:B42, 2013)</f>
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51">
+        <f>COUNTIF(D1:D42, "CS")</f>
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51">
+        <f>COUNTIF(C1:C42, "PUB")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2014</v>
+      </c>
+      <c r="B52">
+        <f>COUNTIF(B1:B42, 2014)</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52">
+        <f>COUNTIF(D2:D43, "ER")</f>
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52">
+        <f>COUNTIF(C1:C42, "SCI")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2015</v>
+      </c>
+      <c r="B53">
+        <f>COUNTIF(B2:B42, 2015)</f>
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53">
+        <f>COUNTIF(D2:D42, "EMX")</f>
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53">
+        <f>COUNTIF(C2:C42, "GOV")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2016</v>
+      </c>
+      <c r="B54">
+        <f>COUNTIF(B2:B42, 2016)</f>
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54">
+        <f>COUNTIF(C1:C42, "PRI")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2017</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2018</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6733CA91-0E31-9A4C-AE7C-AAD850B3E5D9}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>